--- a/data/trans_orig/SIT_LABORAL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SIT_LABORAL-Edad-trans_orig.xlsx
@@ -854,12 +854,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1130,12 +1130,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1193,97 +1193,97 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>318</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,51%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>344</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>0,56%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="U8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2670,12 +2670,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -3009,12 +3009,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3024,12 +3024,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -4599,97 +4599,97 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="inlineStr">
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>0,26%</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K38" s="2" t="inlineStr">
+      <c r="R38" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M38" s="2" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="N38" s="2" t="inlineStr">
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O38" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P38" s="2" t="inlineStr">
-        <is>
-          <t>0,23%</t>
-        </is>
-      </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T38" s="2" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="U38" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5507,97 +5507,97 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>319</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>0,3%</t>
-        </is>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K46" s="2" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M46" s="2" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="N46" s="2" t="inlineStr">
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O46" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P46" s="2" t="inlineStr">
-        <is>
-          <t>0,27%</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T46" s="2" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="U46" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6415,97 +6415,97 @@
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="inlineStr">
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K54" s="2" t="inlineStr">
+      <c r="R54" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M54" s="2" t="inlineStr">
-        <is>
-          <t>319</t>
-        </is>
-      </c>
-      <c r="N54" s="2" t="inlineStr">
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U54" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O54" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P54" s="2" t="inlineStr">
-        <is>
-          <t>0,24%</t>
-        </is>
-      </c>
-      <c r="Q54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T54" s="2" t="inlineStr">
-        <is>
-          <t>325</t>
-        </is>
-      </c>
-      <c r="U54" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V54" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W54" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6754,12 +6754,12 @@
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
@@ -6769,12 +6769,12 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr">
@@ -8361,12 +8361,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -8376,12 +8376,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -8587,12 +8587,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -8602,12 +8602,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -8700,97 +8700,97 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4766</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>2970</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="inlineStr">
-        <is>
-          <t>3789</t>
-        </is>
-      </c>
-      <c r="U8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -9156,12 +9156,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2858</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -9171,12 +9171,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -9269,12 +9269,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2858</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -9643,12 +9643,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2414</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -9658,12 +9658,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -12106,97 +12106,97 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>1632</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="inlineStr">
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>0,48%</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K38" s="2" t="inlineStr">
+      <c r="R38" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M38" s="2" t="inlineStr">
-        <is>
-          <t>1086</t>
-        </is>
-      </c>
-      <c r="N38" s="2" t="inlineStr">
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O38" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P38" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T38" s="2" t="inlineStr">
-        <is>
-          <t>1313</t>
-        </is>
-      </c>
-      <c r="U38" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -13014,97 +13014,97 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>1256</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>0,6%</t>
-        </is>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K46" s="2" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M46" s="2" t="inlineStr">
-        <is>
-          <t>1801</t>
-        </is>
-      </c>
-      <c r="N46" s="2" t="inlineStr">
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O46" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P46" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T46" s="2" t="inlineStr">
-        <is>
-          <t>1586</t>
-        </is>
-      </c>
-      <c r="U46" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -13809,12 +13809,12 @@
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
@@ -13824,12 +13824,12 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr">
@@ -13922,97 +13922,97 @@
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>1255</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="inlineStr">
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>0,83%</t>
-        </is>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K54" s="2" t="inlineStr">
+      <c r="R54" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M54" s="2" t="inlineStr">
-        <is>
-          <t>1016</t>
-        </is>
-      </c>
-      <c r="N54" s="2" t="inlineStr">
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U54" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O54" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P54" s="2" t="inlineStr">
-        <is>
-          <t>0,43%</t>
-        </is>
-      </c>
-      <c r="Q54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T54" s="2" t="inlineStr">
-        <is>
-          <t>1100</t>
-        </is>
-      </c>
-      <c r="U54" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V54" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W54" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -14261,12 +14261,12 @@
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr">
@@ -14409,12 +14409,12 @@
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
@@ -14424,12 +14424,12 @@
       </c>
       <c r="O58" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P58" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q58" s="2" t="inlineStr">
@@ -15868,12 +15868,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -15883,12 +15883,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -16207,12 +16207,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -16222,12 +16222,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -16776,12 +16776,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1203</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -16791,12 +16791,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -17115,12 +17115,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1203</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -17130,12 +17130,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -17699,12 +17699,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -17797,12 +17797,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -17812,12 +17812,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -18705,12 +18705,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -18720,12 +18720,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -19500,12 +19500,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1216</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -19515,12 +19515,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -19613,97 +19613,97 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>1216</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="inlineStr">
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K38" s="2" t="inlineStr">
+      <c r="R38" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M38" s="2" t="inlineStr">
-        <is>
-          <t>1165</t>
-        </is>
-      </c>
-      <c r="N38" s="2" t="inlineStr">
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O38" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P38" s="2" t="inlineStr">
-        <is>
-          <t>0,46%</t>
-        </is>
-      </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T38" s="2" t="inlineStr">
-        <is>
-          <t>1190</t>
-        </is>
-      </c>
-      <c r="U38" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -20295,12 +20295,12 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -20310,12 +20310,12 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -20408,12 +20408,12 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -20423,12 +20423,12 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
@@ -20521,97 +20521,97 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>619</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K46" s="2" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M46" s="2" t="inlineStr">
-        <is>
-          <t>744</t>
-        </is>
-      </c>
-      <c r="N46" s="2" t="inlineStr">
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O46" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P46" s="2" t="inlineStr">
-        <is>
-          <t>0,39%</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T46" s="2" t="inlineStr">
-        <is>
-          <t>677</t>
-        </is>
-      </c>
-      <c r="U46" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -21316,12 +21316,12 @@
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
@@ -21331,12 +21331,12 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr">
@@ -21429,97 +21429,97 @@
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>583</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="inlineStr">
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K54" s="2" t="inlineStr">
+      <c r="R54" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M54" s="2" t="inlineStr">
-        <is>
-          <t>769</t>
-        </is>
-      </c>
-      <c r="N54" s="2" t="inlineStr">
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U54" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O54" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P54" s="2" t="inlineStr">
-        <is>
-          <t>0,36%</t>
-        </is>
-      </c>
-      <c r="Q54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T54" s="2" t="inlineStr">
-        <is>
-          <t>681</t>
-        </is>
-      </c>
-      <c r="U54" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V54" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W54" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -21768,12 +21768,12 @@
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
@@ -21783,12 +21783,12 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr">
@@ -23297,12 +23297,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -23312,12 +23312,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -23714,97 +23714,97 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>756</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,17%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>738</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>1,2%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="inlineStr">
-        <is>
-          <t>750</t>
-        </is>
-      </c>
-      <c r="U8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -24622,97 +24622,97 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>869</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>856</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>865</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -25113,12 +25113,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -25128,12 +25128,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -25530,97 +25530,97 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>844</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,61%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K24" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>793</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O24" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P24" s="2" t="inlineStr">
-        <is>
-          <t>0,6%</t>
-        </is>
-      </c>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T24" s="2" t="inlineStr">
-        <is>
-          <t>820</t>
-        </is>
-      </c>
-      <c r="U24" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -25986,97 +25986,97 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>790</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K28" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>770</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O28" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="inlineStr">
-        <is>
-          <t>781</t>
-        </is>
-      </c>
-      <c r="U28" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -26099,12 +26099,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -26114,12 +26114,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -26212,97 +26212,97 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>790</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K30" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>770</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O30" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T30" s="2" t="inlineStr">
-        <is>
-          <t>781</t>
-        </is>
-      </c>
-      <c r="U30" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -26438,97 +26438,97 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>790</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K32" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M32" s="2" t="inlineStr">
-        <is>
-          <t>770</t>
-        </is>
-      </c>
-      <c r="N32" s="2" t="inlineStr">
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O32" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P32" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T32" s="2" t="inlineStr">
-        <is>
-          <t>781</t>
-        </is>
-      </c>
-      <c r="U32" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -26929,12 +26929,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -26944,12 +26944,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -27007,12 +27007,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -27022,12 +27022,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -27802,12 +27802,12 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -27817,12 +27817,12 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -27915,12 +27915,12 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -27930,12 +27930,12 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
@@ -28028,97 +28028,97 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>736</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>1,07%</t>
-        </is>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K46" s="2" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M46" s="2" t="inlineStr">
-        <is>
-          <t>740</t>
-        </is>
-      </c>
-      <c r="N46" s="2" t="inlineStr">
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O46" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P46" s="2" t="inlineStr">
-        <is>
-          <t>0,84%</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T46" s="2" t="inlineStr">
-        <is>
-          <t>741</t>
-        </is>
-      </c>
-      <c r="U46" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -28367,12 +28367,12 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
@@ -28382,12 +28382,12 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
@@ -28823,12 +28823,12 @@
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
@@ -28838,12 +28838,12 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr">
@@ -28936,97 +28936,97 @@
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>682</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="inlineStr">
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>0,99%</t>
-        </is>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K54" s="2" t="inlineStr">
+      <c r="R54" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M54" s="2" t="inlineStr">
-        <is>
-          <t>706</t>
-        </is>
-      </c>
-      <c r="N54" s="2" t="inlineStr">
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U54" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O54" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P54" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
-      </c>
-      <c r="Q54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T54" s="2" t="inlineStr">
-        <is>
-          <t>699</t>
-        </is>
-      </c>
-      <c r="U54" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V54" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W54" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -29275,97 +29275,97 @@
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>682</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="inlineStr">
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="inlineStr">
-        <is>
-          <t>0,99%</t>
-        </is>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
+      <c r="O57" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P57" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K57" s="2" t="inlineStr">
+      <c r="R57" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L57" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M57" s="2" t="inlineStr">
-        <is>
-          <t>706</t>
-        </is>
-      </c>
-      <c r="N57" s="2" t="inlineStr">
+      <c r="S57" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T57" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U57" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O57" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P57" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
-      </c>
-      <c r="Q57" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R57" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S57" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T57" s="2" t="inlineStr">
-        <is>
-          <t>699</t>
-        </is>
-      </c>
-      <c r="U57" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V57" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W57" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SIT_LABORAL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SIT_LABORAL-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Situación laboral en País Vasco</t>
+          <t>Situación laboral en País Vasco (tasa de respuesta: 99,07%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8053,7 +8053,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Situación laboral en Andalucia</t>
+          <t>Situación laboral en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -15560,7 +15560,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Situación laboral en C.Valenciana</t>
+          <t>Situación laboral en C.Valenciana (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -23067,7 +23067,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Situación laboral en Barcelona</t>
+          <t>Situación laboral en Barcelona (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
